--- a/Docs/Angebot/Ablaufplan.xlsx
+++ b/Docs/Angebot/Ablaufplan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>April</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>Endbericht</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Handbuch</t>
+  </si>
+  <si>
+    <t>Endpräsentation</t>
   </si>
 </sst>
 </file>
@@ -119,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -289,11 +298,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -328,6 +350,10 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,8 +444,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>336433</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>315433</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>163050</xdr:rowOff>
     </xdr:to>
@@ -430,8 +456,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2586658" y="781050"/>
-          <a:ext cx="1836000" cy="144000"/>
+          <a:off x="2596183" y="781050"/>
+          <a:ext cx="2196000" cy="144000"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -483,8 +509,8 @@
       <xdr:rowOff>22364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>336433</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>315433</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>166364</xdr:rowOff>
     </xdr:to>
@@ -495,8 +521,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2586658" y="974864"/>
-          <a:ext cx="1836000" cy="144000"/>
+          <a:off x="2596183" y="974864"/>
+          <a:ext cx="2196000" cy="144000"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -548,8 +574,8 @@
       <xdr:rowOff>24848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>336433</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>315433</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>168848</xdr:rowOff>
     </xdr:to>
@@ -560,7 +586,137 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2586658" y="1167848"/>
+          <a:off x="2596183" y="1167848"/>
+          <a:ext cx="2196000" cy="144000"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33958</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>345958</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>168848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Richtungspfeil 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3748708" y="1548848"/>
+          <a:ext cx="1836000" cy="144000"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33958</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>35615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>345958</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179615</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Richtungspfeil 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3748708" y="1750115"/>
           <a:ext cx="1836000" cy="144000"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
@@ -610,23 +766,23 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>24433</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>24848</xdr:rowOff>
+      <xdr:rowOff>34373</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>336433</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>315433</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>168848</xdr:rowOff>
+      <xdr:rowOff>178373</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Richtungspfeil 5"/>
+        <xdr:cNvPr id="8" name="Richtungspfeil 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2586658" y="1358348"/>
-          <a:ext cx="1836000" cy="144000"/>
+          <a:off x="2596183" y="1367873"/>
+          <a:ext cx="2196000" cy="144000"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -674,30 +830,95 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>24433</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>34373</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>336433</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>160565</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>345433</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>178373</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Richtungspfeil 6"/>
+        <xdr:cNvPr id="9" name="Richtungspfeil 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2586658" y="1540565"/>
+          <a:off x="2596183" y="1939373"/>
+          <a:ext cx="2988000" cy="144000"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>53009</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>365009</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>163878</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Richtungspfeil 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6425234" y="2115378"/>
           <a:ext cx="1836000" cy="144000"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent6"/>
         </a:solidFill>
         <a:ln w="9525"/>
       </xdr:spPr>
@@ -739,30 +960,33 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>24433</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>24848</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>336433</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>168848</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>312433</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>172575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Richtungspfeil 7"/>
+        <xdr:cNvPr id="11" name="Richtungspfeil 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2586658" y="1739348"/>
-          <a:ext cx="1836000" cy="144000"/>
+          <a:off x="2596183" y="2124075"/>
+          <a:ext cx="4860000" cy="144000"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525"/>
       </xdr:spPr>
@@ -802,97 +1026,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57978</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>24848</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>369978</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>168848</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>341100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>163050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Richtungspfeil 8"/>
+        <xdr:cNvPr id="12" name="Richtungspfeil 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4525203" y="1929848"/>
-          <a:ext cx="1836000" cy="144000"/>
+          <a:off x="7562850" y="2305050"/>
+          <a:ext cx="684000" cy="144000"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="9525"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="50000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>53009</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19878</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>365009</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>163878</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Richtungspfeil 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6425234" y="2115378"/>
-          <a:ext cx="1836000" cy="144000"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
         </a:solidFill>
         <a:ln w="9525"/>
       </xdr:spPr>
@@ -1196,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,8 +1499,8 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="23"/>
       <c r="S4" s="12"/>
       <c r="T4" s="8"/>
     </row>
@@ -1361,8 +1523,8 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="9"/>
       <c r="S5" s="12"/>
       <c r="T5" s="8"/>
     </row>
@@ -1385,8 +1547,8 @@
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="9"/>
       <c r="S6" s="12"/>
       <c r="T6" s="8"/>
     </row>
@@ -1409,14 +1571,14 @@
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="9"/>
       <c r="S7" s="12"/>
       <c r="T7" s="8"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
@@ -1433,8 +1595,8 @@
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="9"/>
       <c r="S8" s="12"/>
       <c r="T8" s="8"/>
     </row>
@@ -1457,14 +1619,14 @@
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="9"/>
       <c r="S9" s="12"/>
       <c r="T9" s="8"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -1481,8 +1643,8 @@
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="9"/>
       <c r="S10" s="12"/>
       <c r="T10" s="8"/>
     </row>
@@ -1505,100 +1667,94 @@
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="9"/>
       <c r="S11" s="12"/>
       <c r="T11" s="8"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="18"/>
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="12"/>
       <c r="T12" s="8"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="7"/>
+      <c r="A13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="8"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="T14" s="2"/>
+      <c r="A14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="8"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="20">
-        <v>41736</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="20">
-        <v>41783</v>
-      </c>
-      <c r="J15" s="20"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1606,55 +1762,118 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="20">
-        <v>41852</v>
-      </c>
-      <c r="T15" s="20"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="7"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="22"/>
+      <c r="B16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="22" t="s">
+      <c r="Q16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="20">
+        <v>41736</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="20">
+        <v>41783</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="20">
+        <v>41840</v>
+      </c>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20">
+        <v>41852</v>
+      </c>
+      <c r="T17" s="20"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="T16" s="22"/>
+      <c r="T18" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="S16:T16"/>
+  <mergeCells count="16">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="P18:R18"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:S2"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="Q16:R16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
